--- a/Bug reports table samples.xlsx
+++ b/Bug reports table samples.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>Description</t>
   </si>
@@ -37,13 +37,251 @@
   </si>
   <si>
     <t>Priority &amp; severity</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Forum signature image bug</t>
+  </si>
+  <si>
+    <t>P2 - medium</t>
+  </si>
+  <si>
+    <t>User is unable to upload an image for their forum signature.</t>
+  </si>
+  <si>
+    <t>User should be able to add an image as its signature. The image should be displayed in the text area and saved upon clicking the save button.</t>
+  </si>
+  <si>
+    <t>1. Log in on the forum.
+2. Click on your profile and then on the "account settings"
+3. Click on signature
+4. Click on "Insert image from url and paste the url of the image.
+5. Click on save.</t>
+  </si>
+  <si>
+    <t>The user receives the error attached to this document.</t>
+  </si>
+  <si>
+    <t>Any image uploaded on imgur.com / upload.ee</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/RUU2tMd.png</t>
+  </si>
+  <si>
+    <t>Aircraft refueling bug</t>
+  </si>
+  <si>
+    <t>P4 - very low</t>
+  </si>
+  <si>
+    <t>1. Get inside an aircraft and fly to a gas station.
+2. Make sure you have no money in your hand.
+3. Turn off the engine using /engine and then write /fill.</t>
+  </si>
+  <si>
+    <t>User is able to use the refill command at a gas station within an aircraft and also without any money. Yet the aircraft's fuel doesn't change and the player gets frozen in place.</t>
+  </si>
+  <si>
+    <t>The user gets frozen in place upon entering the command and the aircraft's fuel doesnt change.</t>
+  </si>
+  <si>
+    <t>The user should be frozen in place for a few seconds while the aircraft's fuel is changed and the money is taken from his account.</t>
+  </si>
+  <si>
+    <t>Typo in /help</t>
+  </si>
+  <si>
+    <t>1. Log into the server.
+2. Type /help in chat</t>
+  </si>
+  <si>
+    <t>User should see a list of commands that he can use.</t>
+  </si>
+  <si>
+    <t>User is able to see the commands he's supposed to see plus the deprecated</t>
+  </si>
+  <si>
+    <t>User is able to see deprecated commands such as "/bag", "/briefcase" in "/help" even tho the commands no longer work.</t>
+  </si>
+  <si>
+    <t>CCTV system bug</t>
+  </si>
+  <si>
+    <t>User is not able to use the CCTV system properly as it spawns him into a virtual world higher than 0.</t>
+  </si>
+  <si>
+    <t>1. Go on duty as a police officer.
+2. Go to the CCTV marker inside the station.
+3. Type "/cctv" in chat.
+4. Select an area from the list.
+5. Have another player drive at that destination.</t>
+  </si>
+  <si>
+    <t>The police officer should be able to see the players through the CCTV system.</t>
+  </si>
+  <si>
+    <t>The user is not able to see any player or vehicle as he is spawned inside a virtual world.</t>
+  </si>
+  <si>
+    <t>LSPD car siren bug</t>
+  </si>
+  <si>
+    <t>P1 - high</t>
+  </si>
+  <si>
+    <t>1. Go on duty as a police officer.
+2. Get inside an unmarked police vehicle.
+3. Type "/siren 4".
+4. Save the siren's position on the car.
+5. Move the vehicle.</t>
+  </si>
+  <si>
+    <t>The user should be able to add a siren object to the unmarked vehicle and the siren should keep its relative position to the car.</t>
+  </si>
+  <si>
+    <t>The siren gets stuck to the world position it was saved at and doesn't move along with the car.</t>
+  </si>
+  <si>
+    <t>The user is not able to properly add a siren object to unmarked faction vehicles as it is not staying on the car.</t>
+  </si>
+  <si>
+    <t>The ban list is not working.</t>
+  </si>
+  <si>
+    <t>The user is not able to see the banlist webpage as it displays a 404 error code.</t>
+  </si>
+  <si>
+    <t>1. Open a web browser.
+2. Go to https://ucp.ro-rp.ro/banlist</t>
+  </si>
+  <si>
+    <t>The user should see a webpage containing the right design and the table showcasing the banlist on the server.</t>
+  </si>
+  <si>
+    <t>The user is not able to see the page.</t>
+  </si>
+  <si>
+    <t>EMS rank image missing</t>
+  </si>
+  <si>
+    <t>The rank image of "Fire Captain" is not displayed corectly on the forum as it uses the missing image placeholder.</t>
+  </si>
+  <si>
+    <t>1. Open a web browser.
+2. Go to https://ems.ro-rp.ro
+3. Scroll down to the legend.
+4. Click on "EMS Command Staff"</t>
+  </si>
+  <si>
+    <t>The right image should be displayed corectly.</t>
+  </si>
+  <si>
+    <t>The image is not displayed corectly as its file is potentially missing.</t>
+  </si>
+  <si>
+    <t>Greeting a player that's in death timer.</t>
+  </si>
+  <si>
+    <t>User is able to remove the freeze state of a player in death timer by using the "/greet" command on him.</t>
+  </si>
+  <si>
+    <t>1. Use a weapon to get a player into deathtimer.
+2. Type the /greet command in the chat with his ID as the parameter.</t>
+  </si>
+  <si>
+    <t>The user should not be able perform such action.</t>
+  </si>
+  <si>
+    <t>The user is able to remove other player's freeze state using the "/greet" command.</t>
+  </si>
+  <si>
+    <t>Forum permissions bug for designer role</t>
+  </si>
+  <si>
+    <t>Users is able to see the staff team applications through the pending post approval option while having the designer role.</t>
+  </si>
+  <si>
+    <t>1. Log onto https://www.ro-rp.ro/forum.
+2. Log into an account with the designer role.
+3. Create a post in the staff team application public section.
+4. Click on the mini profile icon.
+5. Click on post approval button.
+6. Scroll through the posts untill you find the one you created.</t>
+  </si>
+  <si>
+    <t>The user should not be able to see this button.</t>
+  </si>
+  <si>
+    <t>The user is able to see the button and use it to check the staff team applications.</t>
+  </si>
+  <si>
+    <t>LSPD's forum search bar is not working.</t>
+  </si>
+  <si>
+    <t>The user is not able to use the search bar visible on the webpage to find content on the forum.</t>
+  </si>
+  <si>
+    <t>1. Log onto https://lspd.ro-rp.ro
+2. Click on the search bar.
+3. Input data.
+4. Press enter.</t>
+  </si>
+  <si>
+    <t>The user should be redirected to a page with indexes of what he has introduced in the search bar.</t>
+  </si>
+  <si>
+    <t>The search bar doesn't do anything.</t>
+  </si>
+  <si>
+    <t>Watch 1 Patrol Log</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/4NWPrUp.png</t>
+  </si>
+  <si>
+    <t>EMS's forum structure bug</t>
+  </si>
+  <si>
+    <t>The forum structure is chained to the root category and the content of each forum is not viewable.</t>
+  </si>
+  <si>
+    <t>1. Log onto https://ems.ro-rp.ro
+2. Click on "Front office" forum.</t>
+  </si>
+  <si>
+    <t>The user should be able to see the contents and the aditional forums related to the "first office".</t>
+  </si>
+  <si>
+    <t>The user is shown the attached image with all the forums chained to the root.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/N4Kgsp4.png?1</t>
+  </si>
+  <si>
+    <t>Sanbook password recovery &amp; signup bug</t>
+  </si>
+  <si>
+    <t>The user is not able to recover his password nor sign up on the webapp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to https://sanbook.ro-rp.ro
+2. Click on sign up
+</t>
+  </si>
+  <si>
+    <t>The user should be able to acces the sign up page and the password recovery page.</t>
+  </si>
+  <si>
+    <t>The user is not able to see any of the pages mentioned as shown in the screenshot attached.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,20 +290,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="15.95"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -83,17 +352,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,208 +681,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
+    <col min="2" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="127.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="89.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="140.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="114.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="63.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="B7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="89.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="89.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="191.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="76.5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="63.75">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="B12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="B13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I12" r:id="rId2"/>
+    <hyperlink ref="I13" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Bug reports table samples.xlsx
+++ b/Bug reports table samples.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12795"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="140">
   <si>
     <t>Description</t>
   </si>
@@ -275,6 +274,232 @@
   </si>
   <si>
     <t>The user is not able to see any of the pages mentioned as shown in the screenshot attached.</t>
+  </si>
+  <si>
+    <t>Chat message typo within tutorial</t>
+  </si>
+  <si>
+    <t>Upon entering any command in the chat you get an error message that has a small typo as seen in the attached image.</t>
+  </si>
+  <si>
+    <t>1. Create a new account on server.
+2. Spawn on the map.
+3. Try to input any command in the chat.</t>
+  </si>
+  <si>
+    <t>The error message should be displayed without the typo.</t>
+  </si>
+  <si>
+    <t>The error message displays with a typo at "com*ands"</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/DzUqwXH.jpeg</t>
+  </si>
+  <si>
+    <t>Email account link to ucp bug</t>
+  </si>
+  <si>
+    <t>Upon trying to link an e-mail account to the ucp account the ucp crashes.</t>
+  </si>
+  <si>
+    <t>1. Visit ucp-beta.liberty.mp
+2. Log in with a valid account.
+3. Go to profile section
+4. Right click on the profile settings wheel.
+5. Go through the e-mail linking.</t>
+  </si>
+  <si>
+    <t>The user should be able to link an e-mail account without crashing the live product.</t>
+  </si>
+  <si>
+    <t>The user is able to crash the live product upon trying to link an email account.</t>
+  </si>
+  <si>
+    <t>GUI bug on 1366x768</t>
+  </si>
+  <si>
+    <t>P3 - low</t>
+  </si>
+  <si>
+    <t>P1 - CRITICAL</t>
+  </si>
+  <si>
+    <t>P2 - HIGH</t>
+  </si>
+  <si>
+    <t>P3 - Medium</t>
+  </si>
+  <si>
+    <t>P4 - Low</t>
+  </si>
+  <si>
+    <t>The GUI is missing the chat message color upon changing the resolution to 1366x768 as shown in the attached screenshot.</t>
+  </si>
+  <si>
+    <t>1. Log onto the server.
+2. Change the game resolution to 1366x768
+3. Click on the chat settings button.</t>
+  </si>
+  <si>
+    <t>The user should have all the chat settings visibible on any resolution.</t>
+  </si>
+  <si>
+    <t>The user is not able to see the last section titled "chat messages color".</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/reQcHG2.jpg
+https://i.imgur.com/vPGgVqx.jpg</t>
+  </si>
+  <si>
+    <t>ATM bug on stealing</t>
+  </si>
+  <si>
+    <t>ATM bug on appearance</t>
+  </si>
+  <si>
+    <t>User is able to steal a an atm that has been already stole and hasn't passed the right amount of time.</t>
+  </si>
+  <si>
+    <t>1. Log onto the server.
+2. Get a personal car.
+3. Get 2 hooks and 1 rope.
+3. Find an ATM on the map that has been stolen already and drive to it.
+4. Park the car near the atm and try to rob it.</t>
+  </si>
+  <si>
+    <t>The user should not be able to steal already stolen ATMs.</t>
+  </si>
+  <si>
+    <t>The user is able to steal already stolen ATMs.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XJxwB6V.jpg</t>
+  </si>
+  <si>
+    <t>Upon trying to rob an atm the hook placed between the atm and the car is not placed corectly.</t>
+  </si>
+  <si>
+    <t>1. Log onto the server.
+2. Get a personal car.
+3. Get 2 hooks and 1 rope.
+3. Find an ATM.
+4. Park the car near the atm and try to rob it.</t>
+  </si>
+  <si>
+    <t>The hook should be attatched corectly to the car and the atm.</t>
+  </si>
+  <si>
+    <t>The hook is not attached corectly as shown in the attatched screenshot.</t>
+  </si>
+  <si>
+    <t>Incorect preview on clothing store items.</t>
+  </si>
+  <si>
+    <t>Some items from the clothing store have the wrong image as preview as shown in the attached screenshot.</t>
+  </si>
+  <si>
+    <t>1. Log onto the server.
+2. Go to a clothing store.
+3. Open the menu.</t>
+  </si>
+  <si>
+    <t>The user should see all the clothing items with the correct preview image in the menu and on the character.</t>
+  </si>
+  <si>
+    <t>The user can't see the right clothing image on the menu instead he sees a general placeholder.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/PjEwMef.jpg</t>
+  </si>
+  <si>
+    <t>Faction garage bug</t>
+  </si>
+  <si>
+    <t>Upon trying to get inside a faction garage with a faction vehicle and someone as a passanger the other person is left on the map with his virtual world changed.</t>
+  </si>
+  <si>
+    <t>1. Log onto the server.
+2. Get a faction car and a passager.
+3. Drive to the faction garage and try to enter with the passager.</t>
+  </si>
+  <si>
+    <t>faction: hitman</t>
+  </si>
+  <si>
+    <t>The user shouldl either get an error saying he can't get inside the garage with the passager OR both players should be teleported inside corectly.</t>
+  </si>
+  <si>
+    <t>The driver gets tp'ed corectly while the passanger isn't.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/JRfzca6.jpg</t>
+  </si>
+  <si>
+    <t>faction: Varrios Los Astecas</t>
+  </si>
+  <si>
+    <t>Message typo trying to plant weed</t>
+  </si>
+  <si>
+    <t>Upon trying to plant weed outside the designated area the user gets an error message with a typo.</t>
+  </si>
+  <si>
+    <t>1. Log onto the server.
+2. Get inside a gang faction.
+3. Get some weed seeds.
+4. Try to plant anywhere outside the designated areas.</t>
+  </si>
+  <si>
+    <t>The user should be prompted with an error message without the typo.</t>
+  </si>
+  <si>
+    <t>The user is prompted with a message with a typo.</t>
+  </si>
+  <si>
+    <t>Forum last message sent discrepancy</t>
+  </si>
+  <si>
+    <t>As shown in the screenshots attached the author of the last message posted on the forum topic is not displayed corectly.</t>
+  </si>
+  <si>
+    <t>1. Visit ucp-beta.liberty.mp
+2. Log in with a valid account.
+3. Go to the forums section.
+4. Go to "Discutii joc" and create a topic.
+5. Ask 3 people to post a message.
+6. Observe how the author of last message is displayed.</t>
+  </si>
+  <si>
+    <t>The last reply on the topic should be displayed corectly.</t>
+  </si>
+  <si>
+    <t>The last reply on the topic is not displayed corectly.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/89wCmiK.png
+https://i.imgur.com/3XqKZrq.png
+https://i.imgur.com/bJE4wce.png</t>
+  </si>
+  <si>
+    <t>Profile dropdown menu overlapping server world map</t>
+  </si>
+  <si>
+    <t>As shown in the attached screenshot the dropdown menu of the profile overlaps with the server world map.</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/uIvp8gy.png</t>
+  </si>
+  <si>
+    <t>1. Visit ucp.liberty.mp
+2. Log in with a valid account.
+3. Click on "more" -&gt; "server map".
+4. Click on the dropdown menu.</t>
+  </si>
+  <si>
+    <t>The dropdown menu should be displayed over the map.</t>
+  </si>
+  <si>
+    <t>The dropdown menu is overlapping incorectly.</t>
   </si>
 </sst>
 </file>
@@ -359,7 +584,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -385,6 +610,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -750,7 +981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="102">
+    <row r="3" spans="1:9" ht="114.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -875,7 +1106,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="89.25">
+    <row r="8" spans="1:9" ht="102">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1031,50 +1262,389 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="76.5">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="156.75">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="99.75">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="185.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="142.5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="85.5">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="128.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="142.5">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="199.5">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="114">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I12" r:id="rId2"/>
     <hyperlink ref="I13" r:id="rId3"/>
+    <hyperlink ref="I14" r:id="rId4"/>
+    <hyperlink ref="I17" r:id="rId5"/>
+    <hyperlink ref="I18" r:id="rId6"/>
+    <hyperlink ref="I19" r:id="rId7"/>
+    <hyperlink ref="I21" r:id="rId8"/>
+    <hyperlink ref="I23" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>